--- a/Akshar_Paaul_NGO_Student_Data.xlsx
+++ b/Akshar_Paaul_NGO_Student_Data.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45690f69e6ad9329/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abhis\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC1048BE79DC49065ADE58EC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F9ED84A-B512-4AA9-8408-FD8ADE34C99A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0A670D3-D126-48B0-9A1C-AF8074632719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B92AC3FC-8E37-42E8-B842-931C6DA61550}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
-  <si>
-    <t>Admission Number</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="176">
   <si>
     <t>Name</t>
   </si>
@@ -51,40 +57,511 @@
     <t>Mother Tongue</t>
   </si>
   <si>
+    <t>Guardian's Name</t>
+  </si>
+  <si>
+    <t>Phone No. 1</t>
+  </si>
+  <si>
     <t>Phone No. 2</t>
   </si>
   <si>
-    <t>Phone No. 1</t>
-  </si>
-  <si>
     <t>Aadhaar No.</t>
   </si>
   <si>
+    <t>Aarav Deshmukh</t>
+  </si>
+  <si>
     <t>M</t>
   </si>
   <si>
+    <t>Hindu</t>
+  </si>
+  <si>
+    <t>Gen</t>
+  </si>
+  <si>
+    <t>Marathi</t>
+  </si>
+  <si>
+    <t>Rohan Deshmukh</t>
+  </si>
+  <si>
+    <t>7890 1234 5678 9123</t>
+  </si>
+  <si>
+    <t>Vedika Kulkarni</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Swati Kulkarni</t>
+  </si>
+  <si>
+    <t>6789 2345 8901 3456</t>
+  </si>
+  <si>
+    <t>Rohan Sharma</t>
+  </si>
+  <si>
     <t>Hindi</t>
   </si>
   <si>
+    <t>Vivek Sharma</t>
+  </si>
+  <si>
+    <t>5678 3456 1234 8765</t>
+  </si>
+  <si>
+    <t>Simran Kaur</t>
+  </si>
+  <si>
+    <t>Sikh</t>
+  </si>
+  <si>
     <t>OBC</t>
   </si>
   <si>
-    <t>Marathi</t>
-  </si>
-  <si>
-    <t>Archit Patil</t>
-  </si>
-  <si>
-    <t>Mayur Patil</t>
-  </si>
-  <si>
-    <t>5698 5695 2345 6369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                AKSHAR PAAUL STUDENT DATA CLASS 3rd 2022-23</t>
-  </si>
-  <si>
-    <t>Guradian's Name</t>
+    <t>Punjabi</t>
+  </si>
+  <si>
+    <t>Harjit Kaur</t>
+  </si>
+  <si>
+    <t>2345 6789 9012 5678</t>
+  </si>
+  <si>
+    <t>Aniket Jadhav</t>
+  </si>
+  <si>
+    <t>Milind Jadhav</t>
+  </si>
+  <si>
+    <t>8901 2345 6789 1234</t>
+  </si>
+  <si>
+    <t>Priya Rane</t>
+  </si>
+  <si>
+    <t>Shraddha Rane</t>
+  </si>
+  <si>
+    <t>7654 3210 2345 6789</t>
+  </si>
+  <si>
+    <t>Ishaan Bhatt</t>
+  </si>
+  <si>
+    <t>Gujarati</t>
+  </si>
+  <si>
+    <t>Jignesh Bhatt</t>
+  </si>
+  <si>
+    <t>5432 8765 1234 0987</t>
+  </si>
+  <si>
+    <t>Tanvi Joshi</t>
+  </si>
+  <si>
+    <t>Neha Joshi</t>
+  </si>
+  <si>
+    <t>8901 8765 4321 5678</t>
+  </si>
+  <si>
+    <t>Kabir Khan</t>
+  </si>
+  <si>
+    <t>Muslim</t>
+  </si>
+  <si>
+    <t>Urdu</t>
+  </si>
+  <si>
+    <t>Akhtar Khan</t>
+  </si>
+  <si>
+    <t>3456 5678 1234 2345</t>
+  </si>
+  <si>
+    <t>Zoya Sheikh</t>
+  </si>
+  <si>
+    <t>Salman Sheikh</t>
+  </si>
+  <si>
+    <t>4567 8901 2345 6789</t>
+  </si>
+  <si>
+    <t>Yash Patil</t>
+  </si>
+  <si>
+    <t>Vishal Patil</t>
+  </si>
+  <si>
+    <t>6789 2345 7890 3456</t>
+  </si>
+  <si>
+    <t>Ananya Thakur</t>
+  </si>
+  <si>
+    <t>Pooja Thakur</t>
+  </si>
+  <si>
+    <t>7890 3456 5678 1234</t>
+  </si>
+  <si>
+    <t>Aditya Gokhale</t>
+  </si>
+  <si>
+    <t>Sanjay Gokhale</t>
+  </si>
+  <si>
+    <t>8901 3456 8765 4321</t>
+  </si>
+  <si>
+    <t>Sanya Desai</t>
+  </si>
+  <si>
+    <t>Smita Desai</t>
+  </si>
+  <si>
+    <t>5678 1234 8901 5678</t>
+  </si>
+  <si>
+    <t>Arnav Bhosale</t>
+  </si>
+  <si>
+    <t>Shrikant Bhosale</t>
+  </si>
+  <si>
+    <t>3456 7890 2345 6789</t>
+  </si>
+  <si>
+    <t>Kavya Nair</t>
+  </si>
+  <si>
+    <t>Malayalam</t>
+  </si>
+  <si>
+    <t>Vinod Nair</t>
+  </si>
+  <si>
+    <t>8901 4321 6789 1234</t>
+  </si>
+  <si>
+    <t>Dhruv Gaikwad</t>
+  </si>
+  <si>
+    <t>Mahesh Gaikwad</t>
+  </si>
+  <si>
+    <t>7654 2345 0987 3456</t>
+  </si>
+  <si>
+    <t>Shreya Menon</t>
+  </si>
+  <si>
+    <t>Anjali Menon</t>
+  </si>
+  <si>
+    <t>4321 7654 1234 0987</t>
+  </si>
+  <si>
+    <t>Omkar Shinde</t>
+  </si>
+  <si>
+    <t>Sunil Shinde</t>
+  </si>
+  <si>
+    <t>6543 0987 2345 6789</t>
+  </si>
+  <si>
+    <t>Maya Kapoor</t>
+  </si>
+  <si>
+    <t>Suman Kapoor</t>
+  </si>
+  <si>
+    <t>7890 1234 0987 5678</t>
+  </si>
+  <si>
+    <t>Veer Pawar</t>
+  </si>
+  <si>
+    <t>Kiran Pawar</t>
+  </si>
+  <si>
+    <t>2345 5678 8901 3456</t>
+  </si>
+  <si>
+    <t>Meera Rao</t>
+  </si>
+  <si>
+    <t>Amrita Rao</t>
+  </si>
+  <si>
+    <t>Aarush Jain</t>
+  </si>
+  <si>
+    <t>Jain</t>
+  </si>
+  <si>
+    <t>Manoj Jain</t>
+  </si>
+  <si>
+    <t>5678 1234 8901 4321</t>
+  </si>
+  <si>
+    <t>Ishika Deshmukh</t>
+  </si>
+  <si>
+    <t>Shubha Deshmukh</t>
+  </si>
+  <si>
+    <t>3456 7890 2345 5678</t>
+  </si>
+  <si>
+    <t>Devansh Patel</t>
+  </si>
+  <si>
+    <t>Ramesh Patel</t>
+  </si>
+  <si>
+    <t>8901 3456 4321 6789</t>
+  </si>
+  <si>
+    <t>Siya Bhave</t>
+  </si>
+  <si>
+    <t>Anuja Bhave</t>
+  </si>
+  <si>
+    <t>Aryan Gupta</t>
+  </si>
+  <si>
+    <t>Rajesh Gupta</t>
+  </si>
+  <si>
+    <t>5678 2345 8901 1234</t>
+  </si>
+  <si>
+    <t>Tara Sawant</t>
+  </si>
+  <si>
+    <t>Sunita Sawant</t>
+  </si>
+  <si>
+    <t>8901 2345 5678 6789</t>
+  </si>
+  <si>
+    <t>Krish Kale</t>
+  </si>
+  <si>
+    <t>Anil Kale</t>
+  </si>
+  <si>
+    <t>8901 3456 5678 4321</t>
+  </si>
+  <si>
+    <t>Nisha Iyer</t>
+  </si>
+  <si>
+    <t>Tamil</t>
+  </si>
+  <si>
+    <t>Nandini Iyer</t>
+  </si>
+  <si>
+    <t>6789 5678 2345 6789</t>
+  </si>
+  <si>
+    <t>Arya Gosavi</t>
+  </si>
+  <si>
+    <t>Girish Gosavi</t>
+  </si>
+  <si>
+    <t>4321 7654 0987 5678</t>
+  </si>
+  <si>
+    <t>Neha Reddy</t>
+  </si>
+  <si>
+    <t>Telugu</t>
+  </si>
+  <si>
+    <t>Sunitha Reddy</t>
+  </si>
+  <si>
+    <t>1234 5678 7890 2345</t>
+  </si>
+  <si>
+    <t>Virat Kadam</t>
+  </si>
+  <si>
+    <t>Rahul Kadam</t>
+  </si>
+  <si>
+    <t>7890 1234 2345 6789</t>
+  </si>
+  <si>
+    <t>Nidhi Deshpande</t>
+  </si>
+  <si>
+    <t>Smita Deshpande</t>
+  </si>
+  <si>
+    <t>6789 2345 3456 1234</t>
+  </si>
+  <si>
+    <t>Pranav Mishra</t>
+  </si>
+  <si>
+    <t>Rajesh Mishra</t>
+  </si>
+  <si>
+    <t>5678 7890 1234 5678</t>
+  </si>
+  <si>
+    <t>Srishti Kale</t>
+  </si>
+  <si>
+    <t>Savita Kale</t>
+  </si>
+  <si>
+    <t>8901 2345 6789 3456</t>
+  </si>
+  <si>
+    <t>Hrithik Sahu</t>
+  </si>
+  <si>
+    <t>Rakesh Sahu</t>
+  </si>
+  <si>
+    <t>8901 5678 2345 6789</t>
+  </si>
+  <si>
+    <t>Aditi Agarwal</t>
+  </si>
+  <si>
+    <t>Poonam Agarwal</t>
+  </si>
+  <si>
+    <t>4321 2345 6789 8901</t>
+  </si>
+  <si>
+    <t>Riya Chavan</t>
+  </si>
+  <si>
+    <t>Prajakta Chavan</t>
+  </si>
+  <si>
+    <t>2345 1234 5678 4321</t>
+  </si>
+  <si>
+    <t>Rohan Singh</t>
+  </si>
+  <si>
+    <t>Ravi Singh</t>
+  </si>
+  <si>
+    <t>6789 2345 5678 1234</t>
+  </si>
+  <si>
+    <t>Mahi Sawant</t>
+  </si>
+  <si>
+    <t>5678 8901 2345 6789</t>
+  </si>
+  <si>
+    <t>Ishaan Desai</t>
+  </si>
+  <si>
+    <t>Suresh Desai</t>
+  </si>
+  <si>
+    <t>3456 7890 2345 8901</t>
+  </si>
+  <si>
+    <t>Aditi Kumar</t>
+  </si>
+  <si>
+    <t>Ramesh Kumar</t>
+  </si>
+  <si>
+    <t>4321 5678 6789 2345</t>
+  </si>
+  <si>
+    <t>Aarav Kadam</t>
+  </si>
+  <si>
+    <t>Rajesh Kadam</t>
+  </si>
+  <si>
+    <t>8901 2345 6789 5678</t>
+  </si>
+  <si>
+    <t>Kavya Shukla</t>
+  </si>
+  <si>
+    <t>Arvind Shukla</t>
+  </si>
+  <si>
+    <t>5678 7890 4321 2345</t>
+  </si>
+  <si>
+    <t>Parth More</t>
+  </si>
+  <si>
+    <t>Uday More</t>
+  </si>
+  <si>
+    <t>2345 6789 1234 3456</t>
+  </si>
+  <si>
+    <t>Tanya Reddy</t>
+  </si>
+  <si>
+    <t>Ashok Reddy</t>
+  </si>
+  <si>
+    <t>4321 1234 5678 8901</t>
+  </si>
+  <si>
+    <t>Om Naik</t>
+  </si>
+  <si>
+    <t>Prashant Naik</t>
+  </si>
+  <si>
+    <t>5678 2345 6789 1234</t>
+  </si>
+  <si>
+    <t>Sneha Bhandari</t>
+  </si>
+  <si>
+    <t>Sunil Bhandari</t>
+  </si>
+  <si>
+    <t>3456 1234 8901 2345</t>
+  </si>
+  <si>
+    <t>Rudra Gawade</t>
+  </si>
+  <si>
+    <t>Ajit Gawade</t>
+  </si>
+  <si>
+    <t>6789 5678 2345 4321</t>
+  </si>
+  <si>
+    <t>Admission No.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    AKSHAR PAAUL STUDENT DATA CLASS 3rd 2022-23</t>
   </si>
 </sst>
 </file>
@@ -100,14 +577,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="28"/>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial Black"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="28"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -134,12 +613,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -156,10 +652,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -179,7 +671,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -191,7 +683,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -238,6 +730,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -273,6 +782,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -424,182 +950,2061 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF3D71F-E686-4345-8926-F7FA3683B7F7}">
+  <dimension ref="A1:P56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.5546875" customWidth="1"/>
-    <col min="8" max="8" width="16.33203125" customWidth="1"/>
-    <col min="9" max="9" width="17.5546875" customWidth="1"/>
-    <col min="10" max="11" width="13.44140625" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="7.21875" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.44140625" customWidth="1"/>
+    <col min="11" max="11" width="11.33203125" customWidth="1"/>
+    <col min="12" max="12" width="18.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A1" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+    </row>
+    <row r="2" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+    </row>
+    <row r="3" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A3" s="8"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+    </row>
+    <row r="4" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+    </row>
+    <row r="5" spans="1:16" ht="14.4" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+    </row>
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>4112</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="3">
+        <v>42040</v>
+      </c>
+      <c r="E7" s="3">
+        <v>44022</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="2">
+        <v>9823456712</v>
+      </c>
+      <c r="K7" s="2">
+        <v>9734567812</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>4113</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" s="2" t="s">
+      <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>4111</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D8" s="3">
+        <v>41873</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43997</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="I8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="2">
+        <v>9897654321</v>
+      </c>
+      <c r="K8" s="2">
+        <v>9854678934</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>4114</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="3">
+        <v>41608</v>
+      </c>
+      <c r="E9" s="3">
+        <v>44348</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2">
+        <v>9823678912</v>
+      </c>
+      <c r="K9" s="2">
+        <v>9876543210</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>4115</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3">
+        <v>42134</v>
+      </c>
+      <c r="E10" s="3">
+        <v>44024</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J10" s="2">
+        <v>9876543212</v>
+      </c>
+      <c r="K10" s="2">
+        <v>9867543211</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>4116</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="3">
+        <v>41628</v>
+      </c>
+      <c r="E11" s="3">
+        <v>43991</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="2">
+        <v>9998765432</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9871234567</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>4117</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="3">
+        <v>42081</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="2">
+        <v>9876543214</v>
+      </c>
+      <c r="K12" s="2">
+        <v>9812345678</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>4118</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="3">
+        <v>41661</v>
+      </c>
+      <c r="E13" s="3">
+        <v>44017</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" s="2">
+        <v>9834567812</v>
+      </c>
+      <c r="K13" s="2">
+        <v>9821678932</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>4119</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="3">
+        <v>41522</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44372</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="2">
+        <v>9887654321</v>
+      </c>
+      <c r="K14" s="2">
+        <v>9745678910</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>4120</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="3">
+        <v>41742</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43997</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J15" s="2">
+        <v>9123456789</v>
+      </c>
+      <c r="K15" s="2">
+        <v>9734567891</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>4121</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="3">
+        <v>41482</v>
+      </c>
+      <c r="E16" s="3">
+        <v>44378</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J16" s="2">
+        <v>9876549876</v>
+      </c>
+      <c r="K16" s="2">
+        <v>9867543212</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="5"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>4122</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="3">
+        <v>41672</v>
+      </c>
+      <c r="E17" s="3">
+        <v>43990</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J17" s="2">
+        <v>9823456712</v>
+      </c>
+      <c r="K17" s="2">
+        <v>9923456781</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>4123</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="3">
+        <v>42276</v>
+      </c>
+      <c r="E18" s="3">
+        <v>44032</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="2">
+        <v>9867543214</v>
+      </c>
+      <c r="K18" s="2">
+        <v>9876543201</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>4124</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="3">
+        <v>41717</v>
+      </c>
+      <c r="E19" s="3">
+        <v>43995</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="J19" s="2">
+        <v>9898765432</v>
+      </c>
+      <c r="K19" s="2">
+        <v>9812345670</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>4125</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="3">
+        <v>41494</v>
+      </c>
+      <c r="E20" s="3">
+        <v>44387</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="2">
+        <v>9876543298</v>
+      </c>
+      <c r="K20" s="2">
+        <v>9734567898</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>4126</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="3">
+        <v>42172</v>
+      </c>
+      <c r="E21" s="3">
+        <v>44001</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J21" s="2">
+        <v>9898765431</v>
+      </c>
+      <c r="K21" s="2">
+        <v>9734567810</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>4127</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="3">
+        <v>41684</v>
+      </c>
+      <c r="E22" s="3">
+        <v>44359</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J22" s="2">
+        <v>9123456780</v>
+      </c>
+      <c r="K22" s="2">
+        <v>9745678912</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>4128</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D23" s="3">
+        <v>42133</v>
+      </c>
+      <c r="E23" s="3">
+        <v>44020</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="J23" s="2">
+        <v>9734567890</v>
+      </c>
+      <c r="K23" s="2">
+        <v>9823456713</v>
+      </c>
+      <c r="L23" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>4129</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="3">
+        <v>41574</v>
+      </c>
+      <c r="E24" s="3">
+        <v>44397</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" s="2">
+        <v>9765432109</v>
+      </c>
+      <c r="K24" s="2">
+        <v>9834567812</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>4130</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="3">
+        <v>41975</v>
+      </c>
+      <c r="E25" s="3">
+        <v>44007</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J25" s="2">
+        <v>9876543219</v>
+      </c>
+      <c r="K25" s="2">
+        <v>9745678912</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>4131</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3">
+        <v>42027</v>
+      </c>
+      <c r="E26" s="3">
+        <v>43999</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="2">
+        <v>9723456710</v>
+      </c>
+      <c r="K26" s="2">
+        <v>9812345672</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>4132</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="3">
+        <v>41745</v>
+      </c>
+      <c r="E27" s="3">
+        <v>44027</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="J27" s="2">
+        <v>9834567820</v>
+      </c>
+      <c r="K27" s="2">
+        <v>9845678910</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>4133</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="3">
+        <v>42074</v>
+      </c>
+      <c r="E28" s="3">
+        <v>44369</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="2">
+        <v>9876543297</v>
+      </c>
+      <c r="K28" s="2">
+        <v>9812345675</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>4134</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="3">
+        <v>41397</v>
+      </c>
+      <c r="E29" s="3">
+        <v>44000</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" s="2">
+        <v>9123456712</v>
+      </c>
+      <c r="K29" s="2">
+        <v>9854678932</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>4135</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="3">
+        <v>41932</v>
+      </c>
+      <c r="E30" s="3">
+        <v>44375</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J30" s="2">
+        <v>9876541234</v>
+      </c>
+      <c r="K30" s="2">
+        <v>9765432108</v>
+      </c>
+      <c r="L30" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>4136</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="3">
+        <v>42198</v>
+      </c>
+      <c r="E31" s="3">
+        <v>44014</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J31" s="2">
+        <v>9867543297</v>
+      </c>
+      <c r="K31" s="2">
+        <v>9845678911</v>
+      </c>
+      <c r="L31" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>4137</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D32" s="3">
+        <v>41451</v>
+      </c>
+      <c r="E32" s="3">
+        <v>44357</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J32" s="2">
+        <v>9876543296</v>
+      </c>
+      <c r="K32" s="2">
+        <v>9734567811</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>4138</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="3">
+        <v>41889</v>
+      </c>
+      <c r="E33" s="3">
+        <v>44027</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="2">
+        <v>9734567892</v>
+      </c>
+      <c r="K33" s="2">
+        <v>9876541233</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>4139</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" s="3">
+        <v>42082</v>
+      </c>
+      <c r="E34" s="3">
+        <v>44031</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J34" s="2">
+        <v>9876549875</v>
+      </c>
+      <c r="K34" s="2">
+        <v>9734567895</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>4140</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="3">
+        <v>42004</v>
+      </c>
+      <c r="E35" s="3">
+        <v>44369</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="2">
+        <v>9723456711</v>
+      </c>
+      <c r="K35" s="2">
+        <v>9812345671</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>4141</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" s="3">
+        <v>42041</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44028</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J36" s="2">
+        <v>9834567811</v>
+      </c>
+      <c r="K36" s="2">
+        <v>9745678913</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>4142</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="3">
+        <v>41599</v>
+      </c>
+      <c r="E37" s="3">
+        <v>43993</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J37" s="2">
+        <v>9876543218</v>
+      </c>
+      <c r="K37" s="2">
+        <v>9823456712</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>4143</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="3">
+        <v>41848</v>
+      </c>
+      <c r="E38" s="3">
+        <v>44382</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="J38" s="2">
+        <v>9876543217</v>
+      </c>
+      <c r="K38" s="2">
+        <v>9723456789</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>4144</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="3">
         <v>41654</v>
       </c>
-      <c r="E6" s="1">
-        <v>44000</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E39" s="3">
+        <v>44007</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J39" s="2">
+        <v>9876543216</v>
+      </c>
+      <c r="K39" s="2">
+        <v>9734567894</v>
+      </c>
+      <c r="L39" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>4145</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D40" s="3">
+        <v>42093</v>
+      </c>
+      <c r="E40" s="3">
+        <v>44026</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J40" s="2">
+        <v>9812345676</v>
+      </c>
+      <c r="K40" s="2">
+        <v>9745678914</v>
+      </c>
+      <c r="L40" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>4146</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="D41" s="3">
+        <v>41978</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44380</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6">
-        <v>9639914092</v>
-      </c>
-      <c r="K6">
-        <v>9720860455</v>
-      </c>
-      <c r="L6" t="s">
-        <v>17</v>
+      <c r="H41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" s="2">
+        <v>9867543296</v>
+      </c>
+      <c r="K41" s="2">
+        <v>9734567814</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>4147</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D42" s="3">
+        <v>41388</v>
+      </c>
+      <c r="E42" s="3">
+        <v>44364</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="J42" s="2">
+        <v>9876543215</v>
+      </c>
+      <c r="K42" s="2">
+        <v>9823456788</v>
+      </c>
+      <c r="L42" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>4148</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="3">
+        <v>41862</v>
+      </c>
+      <c r="E43" s="3">
+        <v>44003</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J43" s="2">
+        <v>9734567815</v>
+      </c>
+      <c r="K43" s="2">
+        <v>9867543210</v>
+      </c>
+      <c r="L43" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>4149</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D44" s="3">
+        <v>42062</v>
+      </c>
+      <c r="E44" s="3">
+        <v>44389</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="J44" s="2">
+        <v>9734567816</v>
+      </c>
+      <c r="K44" s="2">
+        <v>9876543211</v>
+      </c>
+      <c r="L44" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
+        <v>4150</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D45" s="6">
+        <v>41808</v>
+      </c>
+      <c r="E45" s="6">
+        <v>44396</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="J45" s="4">
+        <v>9734567817</v>
+      </c>
+      <c r="K45" s="4">
+        <v>9723456715</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>4151</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D46" s="3">
+        <v>42065</v>
+      </c>
+      <c r="E46" s="3">
+        <v>44393</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J46" s="2">
+        <v>9734567818</v>
+      </c>
+      <c r="K46" s="2">
+        <v>9823456716</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>4152</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="3">
+        <v>41739</v>
+      </c>
+      <c r="E47" s="3">
+        <v>44385</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="J47" s="2">
+        <v>9812345679</v>
+      </c>
+      <c r="K47" s="2">
+        <v>9876543213</v>
+      </c>
+      <c r="L47" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>4153</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D48" s="3">
+        <v>41440</v>
+      </c>
+      <c r="E48" s="3">
+        <v>44372</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J48" s="2">
+        <v>9876541235</v>
+      </c>
+      <c r="K48" s="2">
+        <v>9734567819</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>4154</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="3">
+        <v>41862</v>
+      </c>
+      <c r="E49" s="3">
+        <v>44390</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="J49" s="2">
+        <v>9723456717</v>
+      </c>
+      <c r="K49" s="2">
+        <v>9812345678</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>4155</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D50" s="3">
+        <v>41546</v>
+      </c>
+      <c r="E50" s="3">
+        <v>44378</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J50" s="2">
+        <v>9867543217</v>
+      </c>
+      <c r="K50" s="2">
+        <v>9734567820</v>
+      </c>
+      <c r="L50" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>4156</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D51" s="3">
+        <v>41965</v>
+      </c>
+      <c r="E51" s="3">
+        <v>44357</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J51" s="2">
+        <v>9876543295</v>
+      </c>
+      <c r="K51" s="2">
+        <v>9823456717</v>
+      </c>
+      <c r="L51" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>4157</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D52" s="3">
+        <v>42215</v>
+      </c>
+      <c r="E52" s="3">
+        <v>44397</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J52" s="2">
+        <v>9812345677</v>
+      </c>
+      <c r="K52" s="2">
+        <v>9734567821</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>4158</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D53" s="3">
+        <v>41555</v>
+      </c>
+      <c r="E53" s="3">
+        <v>44384</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J53" s="2">
+        <v>9876543214</v>
+      </c>
+      <c r="K53" s="2">
+        <v>9723456718</v>
+      </c>
+      <c r="L53" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>4159</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D54" s="3">
+        <v>42052</v>
+      </c>
+      <c r="E54" s="3">
+        <v>44368</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J54" s="2">
+        <v>9723456719</v>
+      </c>
+      <c r="K54" s="2">
+        <v>9823456718</v>
+      </c>
+      <c r="L54" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>4160</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="3">
+        <v>41644</v>
+      </c>
+      <c r="E55" s="3">
+        <v>44375</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="J55" s="2">
+        <v>9734567810</v>
+      </c>
+      <c r="K55" s="2">
+        <v>9876543215</v>
+      </c>
+      <c r="L55" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>4161</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="3">
+        <v>42081</v>
+      </c>
+      <c r="E56" s="3">
+        <v>44387</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J56" s="2">
+        <v>9734567822</v>
+      </c>
+      <c r="K56" s="2">
+        <v>9823456719</v>
+      </c>
+      <c r="L56" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:Q4"/>
+    <mergeCell ref="A1:L5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
